--- a/data/league_data/spain/19/spain_shot_creation.xlsx
+++ b/data/league_data/spain/19/spain_shot_creation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3B6866-B0BF-7047-90D2-DC9DFFD305CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A2C6B-E550-5A41-B95C-56CE388BE105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="583">
   <si>
     <t>SCA</t>
   </si>
@@ -1763,12 +1763,18 @@
   </si>
   <si>
     <t>Toni Moya</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2623,14 +2629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2658,7 +2664,7 @@
     <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4878,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4952,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5100,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5544,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6136,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6210,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6432,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6654,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7098,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7172,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7246,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7394,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7468,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7986,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8060,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8208,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8282,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8356,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8430,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8726,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8874,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9022,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9244,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9540,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9614,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9688,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9762,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9836,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9910,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10132,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10206,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10354,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10502,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10576,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10724,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10798,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10872,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10946,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11020,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11094,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11168,12 +11174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>184</v>
+        <v>582</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -11242,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11316,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11464,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11538,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11612,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11686,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11760,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11834,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11982,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12056,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12130,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12204,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12278,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12426,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12500,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12574,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12648,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12722,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12870,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12944,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13018,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13092,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13166,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13240,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13388,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13462,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13536,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13610,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13758,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13832,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13906,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13980,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14128,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14202,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14276,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14498,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14572,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14646,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14720,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14794,7 +14800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14868,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14942,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -15016,7 +15022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15090,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15164,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15312,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15386,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15534,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15608,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15682,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15756,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15904,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15978,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16052,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16126,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16200,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16274,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16348,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16422,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16496,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16570,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16644,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16718,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16792,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16866,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16940,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17088,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17236,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17310,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17384,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17458,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17532,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17606,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17680,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17828,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17902,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17976,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18050,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18124,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18198,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18272,7 +18278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18346,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18420,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18494,7 +18500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18568,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18642,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18716,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18790,7 +18796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18938,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -19012,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19086,12 +19092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>44</v>
+        <v>581</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>19</v>
@@ -19160,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19234,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19308,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19382,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19456,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -19530,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -19604,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -19678,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -19752,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -19826,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -19900,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19974,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20048,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20122,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20196,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20270,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20344,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20418,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20492,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20566,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20640,7 +20646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20714,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20788,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20862,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20936,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21158,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21232,7 +21238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21306,7 +21312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21380,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21454,7 +21460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21528,7 +21534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21602,7 +21608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21676,7 +21682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21898,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -21972,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22046,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22120,7 +22126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22194,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22268,7 +22274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22342,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -22416,7 +22422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -22490,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -22564,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -22638,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22712,7 +22718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22786,7 +22792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22860,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22934,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -23008,7 +23014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23082,7 +23088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23156,7 +23162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23230,7 +23236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23304,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -23378,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -23452,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -23526,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -23600,7 +23606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -23674,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -23748,7 +23754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -23822,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -23896,7 +23902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -23970,7 +23976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -24044,7 +24050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -24118,7 +24124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -24192,7 +24198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -24266,7 +24272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -24340,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -24414,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -24488,7 +24494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -24562,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -24636,7 +24642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -24710,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -24784,7 +24790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -24858,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -24932,7 +24938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -25006,7 +25012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -25080,7 +25086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -25154,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -25228,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -25302,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -25376,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -25450,7 +25456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -25524,7 +25530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -25598,7 +25604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -25672,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -25746,7 +25752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -25820,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -25894,7 +25900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -25968,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -26042,7 +26048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -26116,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -26190,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -26264,7 +26270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -26338,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -26412,7 +26418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -26486,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -26560,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -26634,7 +26640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -26708,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -26782,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -26856,7 +26862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -26930,7 +26936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -27004,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -27078,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -27152,7 +27158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -27226,7 +27232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -27300,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -27374,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -27448,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -27522,7 +27528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -27596,7 +27602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -27670,7 +27676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -27744,7 +27750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -27818,7 +27824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -27892,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -27966,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -28040,7 +28046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -28114,7 +28120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -28188,7 +28194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -28262,7 +28268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -28336,7 +28342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -28410,7 +28416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -28484,7 +28490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -28558,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -28632,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -28706,7 +28712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -28780,7 +28786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -28854,7 +28860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -28928,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -29002,7 +29008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -29076,7 +29082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -29150,7 +29156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -29224,7 +29230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -29298,7 +29304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -29372,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -29446,7 +29452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -29520,7 +29526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -29594,7 +29600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -29668,7 +29674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -29742,7 +29748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -29816,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -29890,7 +29896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -29964,7 +29970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -30038,7 +30044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -30112,7 +30118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30186,7 +30192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -30260,7 +30266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -30334,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -30408,7 +30414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -30482,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -30556,7 +30562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -30630,7 +30636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -30704,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -30778,7 +30784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -30852,7 +30858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -30926,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -31000,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -31074,7 +31080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -31148,7 +31154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -31222,7 +31228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -31296,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -31370,7 +31376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -31444,7 +31450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -31518,7 +31524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -31592,7 +31598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -31666,7 +31672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -31740,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -31814,7 +31820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -31888,7 +31894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -31962,7 +31968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -32036,7 +32042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -32110,7 +32116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -32184,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -32258,7 +32264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -32332,7 +32338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -32406,7 +32412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32480,7 +32486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -32554,7 +32560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -32628,7 +32634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -32702,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -32776,7 +32782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -32850,7 +32856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -32924,7 +32930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -32998,7 +33004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -33072,7 +33078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -33146,7 +33152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -33220,7 +33226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -33294,7 +33300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -33368,7 +33374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -33442,7 +33448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -33516,7 +33522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -33590,7 +33596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -33664,7 +33670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -33738,7 +33744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -33812,7 +33818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -33886,7 +33892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -33960,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -34034,7 +34040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -34108,7 +34114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -34182,7 +34188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -34256,7 +34262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -34330,7 +34336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -34404,7 +34410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -34478,7 +34484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -34552,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -34626,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -34700,7 +34706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -34774,7 +34780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -34848,7 +34854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -34922,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -34996,7 +35002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -35070,7 +35076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -35144,7 +35150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -35218,7 +35224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -35292,7 +35298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -35366,7 +35372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -35440,7 +35446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -35514,7 +35520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -35588,7 +35594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -35662,7 +35668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -35736,7 +35742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -35810,7 +35816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -35884,7 +35890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -35958,7 +35964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -36032,7 +36038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -36106,7 +36112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -36180,7 +36186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -36254,7 +36260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -36328,7 +36334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -36402,7 +36408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -36476,7 +36482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -36550,7 +36556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -36624,7 +36630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -36698,7 +36704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -36772,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -36846,7 +36852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -36920,7 +36926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -36994,7 +37000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -37068,7 +37074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -37142,7 +37148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -37216,7 +37222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -37290,7 +37296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -37364,7 +37370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -37438,7 +37444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -37512,7 +37518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -37586,7 +37592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -37660,7 +37666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -37734,7 +37740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -37808,7 +37814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -37882,7 +37888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -37956,7 +37962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -38030,7 +38036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -38104,7 +38110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -38178,7 +38184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -38252,7 +38258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -38326,7 +38332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -38400,7 +38406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -38474,7 +38480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -38548,7 +38554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -38622,7 +38628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -38696,7 +38702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -38770,7 +38776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -38844,7 +38850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -38918,7 +38924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -38992,7 +38998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -39066,7 +39072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -39140,7 +39146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -39214,7 +39220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -39288,7 +39294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -39362,7 +39368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -39436,7 +39442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -39510,7 +39516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -39584,7 +39590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -39658,7 +39664,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/19/spain_shot_creation.xlsx
+++ b/data/league_data/spain/19/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A2C6B-E550-5A41-B95C-56CE388BE105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A72DA3-45EB-5245-9CEF-D8DBB14B26D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="585">
   <si>
     <t>SCA</t>
   </si>
@@ -1078,9 +1078,6 @@
     <t>Rubén Pardo</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Gonzalo Melero</t>
   </si>
   <si>
@@ -1769,6 +1766,15 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2632,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11179,7 +11185,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -19097,7 +19103,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>19</v>
@@ -21761,7 +21767,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>316</v>
+        <v>584</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>19</v>
@@ -22797,7 +22803,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>352</v>
+        <v>583</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>69</v>
@@ -22871,7 +22877,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>19</v>
@@ -22945,7 +22951,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>182</v>
@@ -23019,7 +23025,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>19</v>
@@ -23093,7 +23099,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>19</v>
@@ -23167,7 +23173,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>182</v>
@@ -23241,7 +23247,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>19</v>
@@ -23315,7 +23321,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>19</v>
@@ -23389,7 +23395,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>31</v>
@@ -23463,7 +23469,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>127</v>
@@ -23537,7 +23543,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>19</v>
@@ -23611,7 +23617,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>19</v>
@@ -23685,7 +23691,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>19</v>
@@ -23759,7 +23765,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>19</v>
@@ -23833,7 +23839,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>19</v>
@@ -23907,7 +23913,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>171</v>
@@ -23981,10 +23987,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>33</v>
@@ -24055,7 +24061,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>69</v>
@@ -24129,7 +24135,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>19</v>
@@ -24203,7 +24209,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>19</v>
@@ -24277,7 +24283,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>19</v>
@@ -24351,7 +24357,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>38</v>
@@ -24425,7 +24431,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>19</v>
@@ -24499,7 +24505,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>19</v>
@@ -24573,7 +24579,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>19</v>
@@ -24647,7 +24653,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>288</v>
@@ -24721,7 +24727,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>19</v>
@@ -24795,7 +24801,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>19</v>
@@ -24869,7 +24875,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>19</v>
@@ -24943,7 +24949,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>38</v>
@@ -25017,7 +25023,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>19</v>
@@ -25091,7 +25097,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>19</v>
@@ -25165,7 +25171,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>104</v>
@@ -25239,7 +25245,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>36</v>
@@ -25313,7 +25319,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>19</v>
@@ -25387,7 +25393,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>376</v>
+        <v>582</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>19</v>
@@ -25461,7 +25467,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>101</v>
@@ -25535,10 +25541,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>41</v>
@@ -25609,7 +25615,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
@@ -25683,7 +25689,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>19</v>
@@ -25757,7 +25763,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>104</v>
@@ -25831,10 +25837,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>28</v>
@@ -25905,7 +25911,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>19</v>
@@ -25979,7 +25985,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>19</v>
@@ -26053,7 +26059,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>31</v>
@@ -26127,7 +26133,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>191</v>
@@ -26201,7 +26207,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>19</v>
@@ -26275,7 +26281,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>19</v>
@@ -26349,7 +26355,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>19</v>
@@ -26423,7 +26429,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>104</v>
@@ -26497,7 +26503,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>19</v>
@@ -26571,7 +26577,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>19</v>
@@ -26645,7 +26651,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>19</v>
@@ -26719,10 +26725,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C326" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>20</v>
@@ -26793,7 +26799,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>31</v>
@@ -26867,7 +26873,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>322</v>
@@ -26941,7 +26947,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>19</v>
@@ -27015,7 +27021,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>69</v>
@@ -27163,7 +27169,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>182</v>
@@ -27237,7 +27243,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>189</v>
@@ -27311,7 +27317,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>19</v>
@@ -27385,7 +27391,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>19</v>
@@ -27459,7 +27465,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>19</v>
@@ -27533,10 +27539,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>83</v>
@@ -27607,10 +27613,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>39</v>
@@ -27681,10 +27687,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>41</v>
@@ -27755,7 +27761,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>19</v>
@@ -27829,7 +27835,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>174</v>
@@ -27903,7 +27909,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>19</v>
@@ -27977,7 +27983,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>216</v>
@@ -28051,7 +28057,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>38</v>
@@ -28125,7 +28131,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>19</v>
@@ -28199,7 +28205,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>19</v>
@@ -28273,7 +28279,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>19</v>
@@ -28347,7 +28353,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>101</v>
@@ -28421,10 +28427,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>41</v>
@@ -28495,7 +28501,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>66</v>
@@ -28569,7 +28575,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>294</v>
@@ -28643,7 +28649,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>228</v>
@@ -28717,7 +28723,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>101</v>
@@ -28791,7 +28797,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>147</v>
@@ -28865,7 +28871,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>288</v>
@@ -28939,7 +28945,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>349</v>
@@ -29013,10 +29019,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>134</v>
@@ -29087,7 +29093,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>31</v>
@@ -29161,7 +29167,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>260</v>
@@ -29235,7 +29241,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>19</v>
@@ -29309,7 +29315,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>19</v>
@@ -29383,7 +29389,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -29457,7 +29463,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>147</v>
@@ -29531,7 +29537,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>19</v>
@@ -29605,7 +29611,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>69</v>
@@ -29679,7 +29685,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>19</v>
@@ -29753,10 +29759,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>39</v>
@@ -29827,7 +29833,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>19</v>
@@ -29901,7 +29907,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>19</v>
@@ -29975,7 +29981,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>69</v>
@@ -30049,7 +30055,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>19</v>
@@ -30123,7 +30129,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>19</v>
@@ -30197,10 +30203,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>39</v>
@@ -30271,7 +30277,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>101</v>
@@ -30345,7 +30351,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>19</v>
@@ -30419,7 +30425,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -30493,7 +30499,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>171</v>
@@ -30641,7 +30647,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>19</v>
@@ -30715,7 +30721,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>19</v>
@@ -30789,7 +30795,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>260</v>
@@ -30863,7 +30869,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>31</v>
@@ -30937,10 +30943,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>134</v>
@@ -31011,7 +31017,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>66</v>
@@ -31085,10 +31091,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>39</v>
@@ -31159,7 +31165,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>19</v>
@@ -31233,7 +31239,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>38</v>
@@ -31307,7 +31313,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>19</v>
@@ -31381,7 +31387,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>19</v>
@@ -31455,7 +31461,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>101</v>
@@ -31529,10 +31535,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C391" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="C391" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>28</v>
@@ -31603,7 +31609,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>171</v>
@@ -31677,10 +31683,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C393" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>33</v>
@@ -31751,7 +31757,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>19</v>
@@ -31825,7 +31831,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>19</v>
@@ -31899,7 +31905,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>19</v>
@@ -31973,7 +31979,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>19</v>
@@ -32047,7 +32053,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>101</v>
@@ -32121,7 +32127,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>138</v>
@@ -32195,7 +32201,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>182</v>
@@ -32269,7 +32275,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>19</v>
@@ -32343,7 +32349,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>209</v>
@@ -32417,7 +32423,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>182</v>
@@ -32491,10 +32497,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C404" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>28</v>
@@ -32565,7 +32571,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>19</v>
@@ -32639,7 +32645,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>19</v>
@@ -32713,7 +32719,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>19</v>
@@ -32787,7 +32793,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>31</v>
@@ -32861,7 +32867,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>38</v>
@@ -32935,7 +32941,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>38</v>
@@ -33009,10 +33015,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C411" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>39</v>
@@ -33083,7 +33089,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>19</v>
@@ -33157,7 +33163,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>69</v>
@@ -33231,7 +33237,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>19</v>
@@ -33305,7 +33311,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>19</v>
@@ -33379,7 +33385,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>19</v>
@@ -33453,7 +33459,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>19</v>
@@ -33527,7 +33533,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -33601,10 +33607,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>83</v>
@@ -33675,7 +33681,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -33823,10 +33829,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C422" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>41</v>
@@ -33897,7 +33903,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>174</v>
@@ -33971,10 +33977,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>20</v>
@@ -34045,7 +34051,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>209</v>
@@ -34119,7 +34125,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>19</v>
@@ -34193,7 +34199,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>189</v>
@@ -34267,7 +34273,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>19</v>
@@ -34341,7 +34347,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>147</v>
@@ -34415,7 +34421,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>19</v>
@@ -34489,7 +34495,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>138</v>
@@ -34563,7 +34569,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>19</v>
@@ -34637,7 +34643,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>19</v>
@@ -34711,7 +34717,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>19</v>
@@ -34785,7 +34791,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>138</v>
@@ -34859,10 +34865,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>33</v>
@@ -34933,7 +34939,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>69</v>
@@ -35007,7 +35013,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>19</v>
@@ -35081,7 +35087,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>19</v>
@@ -35155,7 +35161,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>19</v>
@@ -35229,7 +35235,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>19</v>
@@ -35303,7 +35309,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>31</v>
@@ -35377,7 +35383,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>19</v>
@@ -35451,7 +35457,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>38</v>
@@ -35525,7 +35531,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>19</v>
@@ -35599,7 +35605,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>322</v>
@@ -35673,7 +35679,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>19</v>
@@ -35747,7 +35753,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>19</v>
@@ -35821,7 +35827,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
@@ -35895,7 +35901,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>19</v>
@@ -35969,7 +35975,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>228</v>
@@ -36043,7 +36049,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>19</v>
@@ -36117,7 +36123,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>260</v>
@@ -36191,7 +36197,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>19</v>
@@ -36265,7 +36271,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>19</v>
@@ -36339,7 +36345,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>189</v>
@@ -36413,7 +36419,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>228</v>
@@ -36487,7 +36493,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>182</v>
@@ -36561,7 +36567,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>69</v>
@@ -36635,7 +36641,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>191</v>
@@ -36709,7 +36715,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>51</v>
@@ -36783,7 +36789,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>31</v>
@@ -36857,7 +36863,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>19</v>
@@ -36931,7 +36937,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>101</v>
@@ -37005,7 +37011,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>19</v>
@@ -37079,7 +37085,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>101</v>
@@ -37153,7 +37159,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>182</v>
@@ -37227,7 +37233,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>19</v>
@@ -37301,7 +37307,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>19</v>
@@ -37375,7 +37381,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>19</v>
@@ -37449,7 +37455,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>19</v>
@@ -37523,7 +37529,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>19</v>
@@ -37597,7 +37603,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>19</v>
@@ -37671,7 +37677,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>19</v>
@@ -37745,7 +37751,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>101</v>
@@ -37819,7 +37825,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>228</v>
@@ -37893,7 +37899,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>19</v>
@@ -37967,10 +37973,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>41</v>
@@ -38041,7 +38047,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>19</v>
@@ -38115,7 +38121,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>104</v>
@@ -38189,7 +38195,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>19</v>
@@ -38263,7 +38269,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>19</v>
@@ -38337,7 +38343,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>38</v>
@@ -38411,7 +38417,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>19</v>
@@ -38485,7 +38491,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>19</v>
@@ -38559,7 +38565,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>127</v>
@@ -38633,7 +38639,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>19</v>
@@ -38707,7 +38713,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>127</v>
@@ -38781,7 +38787,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>19</v>
@@ -38855,7 +38861,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>19</v>
@@ -38929,7 +38935,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>19</v>
@@ -39003,7 +39009,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>19</v>
@@ -39077,7 +39083,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>19</v>
@@ -39151,7 +39157,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>101</v>
@@ -39225,7 +39231,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>19</v>
@@ -39299,7 +39305,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>19</v>
@@ -39373,7 +39379,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>19</v>
@@ -39447,7 +39453,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>163</v>
@@ -39521,7 +39527,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>19</v>
@@ -39595,7 +39601,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>127</v>

--- a/data/league_data/spain/19/spain_shot_creation.xlsx
+++ b/data/league_data/spain/19/spain_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A72DA3-45EB-5245-9CEF-D8DBB14B26D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0569C33-13B0-9C48-8DFA-E68892C27A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1588,9 +1588,6 @@
     <t>Cheick Doukouré</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>Ignasi Miquel</t>
   </si>
   <si>
@@ -1775,6 +1772,9 @@
   </si>
   <si>
     <t>Juanfran Moreno</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11185,7 +11185,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -19103,7 +19103,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>19</v>
@@ -21767,7 +21767,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>19</v>
@@ -22803,7 +22803,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>69</v>
@@ -25393,7 +25393,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>19</v>
@@ -34939,7 +34939,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>69</v>
@@ -35013,7 +35013,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>19</v>
@@ -35087,7 +35087,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>19</v>
@@ -35161,7 +35161,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>19</v>
@@ -35235,7 +35235,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>19</v>
@@ -35309,7 +35309,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>31</v>
@@ -35383,7 +35383,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>19</v>
@@ -35457,7 +35457,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>38</v>
@@ -35531,7 +35531,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>19</v>
@@ -35605,7 +35605,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>322</v>
@@ -35679,7 +35679,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>19</v>
@@ -35753,7 +35753,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>19</v>
@@ -35827,7 +35827,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
@@ -35901,7 +35901,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>19</v>
@@ -35975,7 +35975,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>228</v>
@@ -36049,7 +36049,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>19</v>
@@ -36123,7 +36123,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>260</v>
@@ -36197,7 +36197,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>19</v>
@@ -36271,7 +36271,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>19</v>
@@ -36345,7 +36345,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>189</v>
@@ -36419,7 +36419,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>228</v>
@@ -36493,7 +36493,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>182</v>
@@ -36567,7 +36567,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>69</v>
@@ -36641,7 +36641,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>191</v>
@@ -36715,7 +36715,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>51</v>
@@ -36789,7 +36789,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>31</v>
@@ -36863,7 +36863,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>19</v>
@@ -36937,7 +36937,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>101</v>
@@ -37011,7 +37011,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>19</v>
@@ -37085,7 +37085,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>101</v>
@@ -37233,7 +37233,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>19</v>
@@ -37307,7 +37307,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>19</v>
@@ -37455,7 +37455,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>19</v>
@@ -37529,7 +37529,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>19</v>
@@ -37603,7 +37603,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>19</v>
@@ -37677,7 +37677,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>19</v>
@@ -37751,7 +37751,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>101</v>
@@ -37825,7 +37825,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>228</v>
@@ -37899,7 +37899,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>19</v>
@@ -37973,7 +37973,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>478</v>
@@ -38047,7 +38047,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>19</v>
@@ -38195,7 +38195,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>19</v>
@@ -38269,7 +38269,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>19</v>
@@ -38343,7 +38343,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>38</v>
@@ -38417,7 +38417,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>19</v>
@@ -38491,7 +38491,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>19</v>
@@ -38565,7 +38565,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>127</v>
@@ -38639,7 +38639,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>19</v>
@@ -38713,7 +38713,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>127</v>
@@ -38787,7 +38787,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>19</v>
@@ -38861,7 +38861,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>19</v>
@@ -38935,7 +38935,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>19</v>
@@ -39009,7 +39009,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>19</v>
@@ -39083,7 +39083,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>19</v>
@@ -39157,7 +39157,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>101</v>
@@ -39231,7 +39231,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>19</v>
@@ -39305,7 +39305,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>19</v>
@@ -39379,7 +39379,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>19</v>
@@ -39453,7 +39453,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>163</v>
@@ -39527,7 +39527,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>19</v>
@@ -39601,7 +39601,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>127</v>
